--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1183.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1183.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.132753831443844</v>
+        <v>1.16971755027771</v>
       </c>
       <c r="B1">
-        <v>1.801695256430938</v>
+        <v>2.43874979019165</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.802031354435811</v>
+        <v>2.366850852966309</v>
       </c>
       <c r="E1">
-        <v>1.095657736975728</v>
+        <v>1.233886003494263</v>
       </c>
     </row>
   </sheetData>
